--- a/initial A-t calcs.xlsx
+++ b/initial A-t calcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEE4118F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibr\Desktop\My Files\UCT Work\EEE4118F\EEE4118-Project-Gr6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FE094B-87B7-42DC-898B-030CD54458A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DA5DB3-695B-4B85-AF89-BCD1AF06EA10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2557F7A5-FFA5-4806-8519-DDE32896AC7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2557F7A5-FFA5-4806-8519-DDE32896AC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Variable</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -45,28 +42,40 @@
     <t>t</t>
   </si>
   <si>
-    <t>Value 1</t>
-  </si>
-  <si>
-    <t>Value 2</t>
-  </si>
-  <si>
-    <t>t0</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t100</t>
-  </si>
-  <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Test Number</t>
+  </si>
+  <si>
+    <t>Initial Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>63% Point</t>
+  </si>
+  <si>
+    <t>t (step)</t>
+  </si>
+  <si>
+    <t>t (63%)</t>
+  </si>
+  <si>
+    <t>t (100%)</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,15 +85,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,13 +107,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,170 +490,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E694C-3067-4871-9E4B-733E990FD930}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
         <v>2.3199999999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>2.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="F3" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="G3" s="5">
+        <f>AVERAGE(C3:F3)</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
         <v>8.85</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>8.81</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="F4" s="6">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G11" si="0">AVERAGE(C4:F4)</f>
+        <v>8.8949999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
         <f>C4-C3</f>
         <v>6.5299999999999994</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:E5" si="0">D4-D3</f>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:E5" si="1">D4-D3</f>
         <v>6.7100000000000009</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
         <v>6.8099999999999987</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="C6">
+      <c r="F5" s="6">
+        <f t="shared" ref="F5" si="2">F4-F3</f>
+        <v>7.1700000000000008</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
         <f>C3 + 0.63*C5</f>
         <v>6.4338999999999995</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:E6" si="1">D3 + 0.63*D5</f>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:E6" si="3">D3 + 0.63*D5</f>
         <v>6.327300000000001</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
+      <c r="E6" s="7">
+        <f t="shared" si="3"/>
         <v>6.3502999999999989</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="F6" s="7">
+        <f t="shared" ref="F6" si="4">F3 + 0.63*F5</f>
+        <v>6.3971</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>19.399999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="F7" s="6">
+        <v>29.2</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
         <v>21.4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="F8" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
         <v>51.7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>43.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="F9" s="6">
+        <v>43.1</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
         <f>C4/C3</f>
         <v>3.8146551724137931</v>
       </c>
-      <c r="D10">
-        <f t="shared" ref="D10:E10" si="2">D4/D3</f>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:E10" si="5">D4/D3</f>
         <v>4.1952380952380954</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
+      <c r="E10" s="7">
+        <f t="shared" si="5"/>
         <v>4.3058252427184458</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="F10" s="7">
+        <f t="shared" ref="F10" si="6">F4/F3</f>
+        <v>4.8138297872340434</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.282387074401095</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <f>C8-C7</f>
         <v>1</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:E11" si="3">D8-D7</f>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:E11" si="7">D8-D7</f>
         <v>1</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
+      <c r="E11" s="8">
+        <f t="shared" si="7"/>
         <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" si="8">F8-F7</f>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>